--- a/tools/collectionDesign.xlsx
+++ b/tools/collectionDesign.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="92" windowWidth="14799" windowHeight="8003" activeTab="0" tabRatio="600"/>
+    <workbookView xWindow="210" yWindow="77" windowWidth="14784" windowHeight="7987" activeTab="0" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>{"id":"1","userName":"beibei","userPhone":"1386278377","weChatNum":"sdjfksk","loginTime":"2017-01-02","isInsider":0,"loginCount":0}</t>
   </si>
@@ -141,20 +141,57 @@
   </si>
   <si>
     <t>答题批次</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"id":"","account":"","mima":"","name":"","phone":""}</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>用户表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>mima</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>电话</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0%"/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="19">
+  <fonts count="35" x14ac:knownFonts="35">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -266,7 +303,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
       <sz val="11.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -275,8 +412,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,8 +611,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0504D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -526,47 +854,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,13 +999,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA7BFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1"/>
@@ -731,34 +1181,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="5" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="6" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="5" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="7" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="14" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="15" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="12" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="13" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="17" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="14" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="9" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="10" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" applyFont="1" fillId="11" applyFill="1" borderId="0" applyAlignment="1"/>
@@ -788,9 +1227,69 @@
     <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="18" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="36" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="20" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="36" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="38" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="0" borderId="25" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="181" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,10 +1304,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" activeCellId="0" sqref="D34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -825,16 +1324,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -849,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -860,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -875,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -890,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -899,20 +1398,20 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="11" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="54"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -923,7 +1422,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -934,7 +1433,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
@@ -949,7 +1448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -962,7 +1461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -973,7 +1472,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -988,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -1001,31 +1500,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="22" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+    <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>34</v>
@@ -1036,7 +1535,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
@@ -1047,7 +1546,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>37</v>
@@ -1063,7 +1562,7 @@
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="2"/>
@@ -1074,7 +1573,7 @@
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="2"/>
@@ -1101,14 +1600,108 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
+    <row r="32" spans="1:1" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="104"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>

--- a/tools/collectionDesign.xlsx
+++ b/tools/collectionDesign.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="77" windowWidth="14784" windowHeight="7987" activeTab="0" tabRatio="600"/>
+    <workbookView xWindow="180" yWindow="46" windowWidth="14754" windowHeight="7956" activeTab="0" tabRatio="600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>{"id":"1","userName":"beibei","userPhone":"1386278377","weChatNum":"sdjfksk","loginTime":"2017-01-02","isInsider":0,"loginCount":0}</t>
   </si>
@@ -143,7 +143,7 @@
     <t>答题批次</t>
   </si>
   <si>
-    <t xml:space="preserve"> {"id":"","account":"","mima":"","name":"","phone":""}</t>
+    <t xml:space="preserve"> {"id":"","account":"","mima":"","name":"","phone":"","permission":""}</t>
   </si>
   <si>
     <t>user</t>
@@ -177,6 +177,296 @@
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>是否是管理员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"id":"","productName":"","mima":"","name":"","phone":""}</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>产品表</t>
+  </si>
+  <si>
+    <t>产品ID</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productPrice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品价格</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品单位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productUnit2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品单位2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productCount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productCount2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼单数量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>remark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>imgList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品路径集合</t>
+  </si>
+  <si>
+    <t>productCurrency</t>
+  </si>
+  <si>
+    <t>货币2</t>
+  </si>
+  <si>
+    <t>productCurrency2</t>
+  </si>
+  <si>
+    <t>productCurrency3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productPrice2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.0"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productPrice3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.0"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -191,7 +481,7 @@
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="35">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -303,6 +593,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -408,6 +705,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -798,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1000,6 +1304,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1168,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1"/>
@@ -1230,66 +1575,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="15" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="36" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" applyFont="1" fillId="37" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="36" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="37" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="20" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="36" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" applyFont="1" fillId="38" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="24" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="0" borderId="25" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="0" borderId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="36" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="38" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="0" borderId="27" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1"/>
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="181" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1304,10 +1663,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" activeCellId="0" sqref="D34:E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1324,14 +1683,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -1402,14 +1761,14 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -1515,14 +1874,14 @@
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
@@ -1579,21 +1938,21 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1601,24 +1960,24 @@
       <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="104"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="54" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1632,7 +1991,7 @@
       <c r="B36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="2"/>
@@ -1673,8 +2032,12 @@
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
@@ -1692,8 +2055,156 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="59"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.749805" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="110" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B11:C11"/>
@@ -1702,6 +2213,8 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.6999125161508876" right="0.6999125161508876" top="0.7499062639521802" bottom="0.7499062639521802" header="0.2999625102741512" footer="0.2999625102741512"/>

--- a/tools/collectionDesign.xlsx
+++ b/tools/collectionDesign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>{"id":"1","userName":"beibei","userPhone":"1386278377","weChatNum":"sdjfksk","loginTime":"2017-01-02","isInsider":0,"loginCount":0}</t>
   </si>
@@ -471,6 +471,71 @@
   </si>
   <si>
     <t>注册时间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifyName</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifyType</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币3</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格2</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格3</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类型</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifyDic</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类字典表</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>classifyName</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lassifyType</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类别</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +597,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -571,32 +636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -643,37 +682,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -954,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -973,14 +1020,14 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -1051,14 +1098,14 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
@@ -1164,14 +1211,14 @@
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="2"/>
@@ -1256,14 +1303,14 @@
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="2"/>
@@ -1333,10 +1380,10 @@
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="2"/>
@@ -1349,156 +1396,245 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="49" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B49" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+    </row>
+    <row r="50" spans="2:3" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B50" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="51" spans="2:3" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="52" spans="2:3" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="53" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B53" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B54" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B55" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B57" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B58" s="7" t="s">
+      <c r="C57" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B58" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B59" s="7" t="s">
+      <c r="C58" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B59" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="C59" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" s="9" customFormat="1">
+      <c r="B60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" s="9" customFormat="1">
+      <c r="B61" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B68" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" s="9" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B76" s="3"/>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B77" s="3"/>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B78" s="3"/>
+      <c r="C78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B79" s="3"/>
+      <c r="C79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B80" s="3"/>
+      <c r="C80" s="13"/>
+    </row>
+    <row r="81" spans="2:3" s="9" customFormat="1">
+      <c r="B81" s="14"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="2:3" s="9" customFormat="1">
+      <c r="B82" s="15"/>
+      <c r="C82" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="B44:C44"/>
